--- a/va_facility_data_2025-02-20/Gloucester County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Gloucester%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Gloucester County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Gloucester%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra0253e6ba5024cba8b4236a949021862"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra6b07bed1e464d34b9132f2d3ee9c277"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rccde9599f8da4948b11c2ffe911cdcc3"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rac00ecefff7e4d28a4d980b07807b0aa"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc84ed7e3c7ac4f7fa8b0e5506add25dd"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6e12db95500f4f30911f4d68e838c5ac"/>
   </x:sheets>
 </x:workbook>
 </file>
